--- a/new_modules/Correlation_2022-08-03_L2A.xlsx
+++ b/new_modules/Correlation_2022-08-03_L2A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ULTRA_BLUE</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Медианная</t>
+  </si>
+  <si>
+    <t>Геомет.сред.</t>
+  </si>
+  <si>
+    <t>Гармон.сред.</t>
   </si>
   <si>
     <t>Станд. откл.</t>
@@ -434,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,37 +606,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.9741744584041092</v>
+        <v>-0.8632916044884892</v>
       </c>
       <c r="C5">
-        <v>0.9729521333042555</v>
+        <v>-0.8794835934207134</v>
       </c>
       <c r="D5">
-        <v>0.9129714822327143</v>
+        <v>-0.7916970807124505</v>
       </c>
       <c r="E5">
-        <v>0.9772062319509722</v>
+        <v>-0.9368969360688558</v>
       </c>
       <c r="F5">
-        <v>0.873925716516783</v>
+        <v>-0.7438286339086502</v>
       </c>
       <c r="G5">
-        <v>0.2965808689240839</v>
+        <v>0.9385718103851945</v>
       </c>
       <c r="H5">
-        <v>-0.9736449609089801</v>
+        <v>0.9680284208108679</v>
       </c>
       <c r="I5">
-        <v>-0.996093134210296</v>
+        <v>0.9691614439945917</v>
       </c>
       <c r="J5">
-        <v>-0.9934843831963311</v>
+        <v>0.9615132618805395</v>
       </c>
       <c r="K5">
-        <v>-0.8976522900152795</v>
+        <v>0.9067197366632791</v>
       </c>
       <c r="M5">
-        <v>0.9937545144154414</v>
+        <v>-0.9744414149778546</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -638,37 +644,37 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1688874181359471</v>
+        <v>-0.8765415069744494</v>
       </c>
       <c r="C6">
-        <v>0.5637446184236792</v>
+        <v>-0.8881560220237208</v>
       </c>
       <c r="D6">
-        <v>0.5570708517015438</v>
+        <v>-0.8043978059620542</v>
       </c>
       <c r="E6">
-        <v>0.8377524669583492</v>
+        <v>-0.9404270510108835</v>
       </c>
       <c r="F6">
-        <v>0.5683149762169623</v>
+        <v>-0.754777021665045</v>
       </c>
       <c r="G6">
-        <v>0.01745311631807714</v>
+        <v>0.9415645610004078</v>
       </c>
       <c r="H6">
-        <v>-0.8763063954704708</v>
+        <v>0.969241581952905</v>
       </c>
       <c r="I6">
-        <v>-0.9333286343883522</v>
+        <v>0.9696501191085837</v>
       </c>
       <c r="J6">
-        <v>-0.9738078801881312</v>
+        <v>0.9619188948295753</v>
       </c>
       <c r="K6">
-        <v>-0.7736793017002012</v>
+        <v>0.8936360724878933</v>
       </c>
       <c r="M6">
-        <v>0.853081146064681</v>
+        <v>-0.9753645826023108</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -676,37 +682,37 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0.957135002509606</v>
+        <v>0.9741744584041092</v>
       </c>
       <c r="C7">
-        <v>0.9723406350492589</v>
+        <v>0.9729521333042555</v>
       </c>
       <c r="D7">
-        <v>0.84819273695482</v>
+        <v>0.9129714822327143</v>
       </c>
       <c r="E7">
-        <v>0.9811718771412662</v>
+        <v>0.9772062319509722</v>
       </c>
       <c r="F7">
-        <v>0.6740365318484697</v>
+        <v>0.873925716516783</v>
       </c>
       <c r="G7">
-        <v>-0.02492774786556968</v>
+        <v>0.2965808689240839</v>
       </c>
       <c r="H7">
-        <v>-0.7262680236091934</v>
+        <v>-0.9736449609089801</v>
       </c>
       <c r="I7">
-        <v>-0.9856083956343401</v>
+        <v>-0.996093134210296</v>
       </c>
       <c r="J7">
-        <v>-0.9687999974627828</v>
+        <v>-0.9934843831963311</v>
       </c>
       <c r="K7">
-        <v>-0.930697597523947</v>
+        <v>-0.8976522900152795</v>
       </c>
       <c r="M7">
-        <v>0.9674712713582415</v>
+        <v>0.9937545144154414</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -714,37 +720,37 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.8729354790311979</v>
+        <v>0.1688874181359471</v>
       </c>
       <c r="C8">
-        <v>-0.9945166896144034</v>
+        <v>0.5637446184236792</v>
       </c>
       <c r="D8">
-        <v>-0.2758260665964337</v>
+        <v>0.5570708517015438</v>
       </c>
       <c r="E8">
-        <v>-0.9386619275791245</v>
+        <v>0.8377524669583492</v>
       </c>
       <c r="F8">
-        <v>0.218440608062132</v>
+        <v>0.5683149762169623</v>
       </c>
       <c r="G8">
-        <v>-0.2349659642742822</v>
+        <v>0.01745311631807714</v>
       </c>
       <c r="H8">
-        <v>-0.3046552596456366</v>
+        <v>-0.8763063954704708</v>
       </c>
       <c r="I8">
-        <v>0.8335539220805456</v>
+        <v>-0.9333286343883522</v>
       </c>
       <c r="J8">
-        <v>0.9569222764508449</v>
+        <v>-0.9738078801881312</v>
       </c>
       <c r="K8">
-        <v>0.7803083176683937</v>
+        <v>-0.7736793017002012</v>
       </c>
       <c r="M8">
-        <v>-0.7278635215729519</v>
+        <v>0.853081146064681</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -752,19 +758,37 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>0.9793814315187683</v>
+        <v>0.957135002509606</v>
       </c>
       <c r="C9">
-        <v>0.9925376091458766</v>
+        <v>0.9723406350492589</v>
       </c>
       <c r="D9">
-        <v>0.9188514832467701</v>
+        <v>0.84819273695482</v>
       </c>
       <c r="E9">
-        <v>0.9959207540176284</v>
+        <v>0.9811718771412662</v>
       </c>
       <c r="F9">
-        <v>0.9864607911779437</v>
+        <v>0.6740365318484697</v>
+      </c>
+      <c r="G9">
+        <v>-0.02492774786556968</v>
+      </c>
+      <c r="H9">
+        <v>-0.7262680236091934</v>
+      </c>
+      <c r="I9">
+        <v>-0.9856083956343401</v>
+      </c>
+      <c r="J9">
+        <v>-0.9687999974627828</v>
+      </c>
+      <c r="K9">
+        <v>-0.930697597523947</v>
+      </c>
+      <c r="M9">
+        <v>0.9674712713582415</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -772,36 +796,94 @@
         <v>20</v>
       </c>
       <c r="B10">
+        <v>-0.8729354790311979</v>
+      </c>
+      <c r="C10">
+        <v>-0.9945166896144034</v>
+      </c>
+      <c r="D10">
+        <v>-0.2758260665964337</v>
+      </c>
+      <c r="E10">
+        <v>-0.9386619275791245</v>
+      </c>
+      <c r="F10">
+        <v>0.218440608062132</v>
+      </c>
+      <c r="G10">
+        <v>-0.2349659642742822</v>
+      </c>
+      <c r="H10">
+        <v>-0.3046552596456366</v>
+      </c>
+      <c r="I10">
+        <v>0.8335539220805456</v>
+      </c>
+      <c r="J10">
+        <v>0.9569222764508449</v>
+      </c>
+      <c r="K10">
+        <v>0.7803083176683937</v>
+      </c>
+      <c r="M10">
+        <v>-0.7278635215729519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0.9793814315187683</v>
+      </c>
+      <c r="C11">
+        <v>0.9925376091458766</v>
+      </c>
+      <c r="D11">
+        <v>0.9188514832467701</v>
+      </c>
+      <c r="E11">
+        <v>0.9959207540176284</v>
+      </c>
+      <c r="F11">
+        <v>0.9864607911779437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
         <v>-0.9982006374982823</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>-0.9170450701075027</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>-0.8958872723861567</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>-0.9831332409154512</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>-0.9036239481755871</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>0.9332228639771457</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>0.773735601120444</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>0.8830768740951083</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <v>0.7461060059036009</v>
       </c>
-      <c r="K10">
+      <c r="K12">
         <v>0.750523617956284</v>
       </c>
-      <c r="M10">
+      <c r="M12">
         <v>-0.9820383856051212</v>
       </c>
     </row>
